--- a/behavior-trees-dataset/behavior-trees-sampled-projects.xlsx
+++ b/behavior-trees-dataset/behavior-trees-sampled-projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior trees dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior-trees-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264437A5-4B5C-43BF-8956-A8A7A888D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319A347-C82B-44FB-A376-8D477DE995D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="1092" windowWidth="14856" windowHeight="14940" xr2:uid="{5425999F-2923-49DB-9004-1B9BE2E5E9B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5425999F-2923-49DB-9004-1B9BE2E5E9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_sampled_BT_models" sheetId="5" r:id="rId1"/>
@@ -1551,7 +1551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,12 +1588,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1744,7 +1738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -3441,7 +3435,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3449,11 +3443,12 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.109375" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/behavior-trees-dataset/behavior-trees-sampled-projects.xlsx
+++ b/behavior-trees-dataset/behavior-trees-sampled-projects.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Razan\Github\Behavior-Trees-in-Action\behavior-trees-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A319A347-C82B-44FB-A376-8D477DE995D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBEB4A-54B6-41C6-9384-2F56632F7406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5425999F-2923-49DB-9004-1B9BE2E5E9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_sampled_BT_models" sheetId="5" r:id="rId1"/>
-    <sheet name="160720_list_main_to_excute_xml" sheetId="4" r:id="rId2"/>
-    <sheet name="200320_projects_py_tree_ros" sheetId="20" r:id="rId3"/>
+    <sheet name="160720_list_main_to_excute_xml" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="200320_projects_py_tree_ros" sheetId="20" state="hidden" r:id="rId3"/>
     <sheet name="ipa-rar" sheetId="37" r:id="rId4"/>
     <sheet name="vislab-tecnico_vizzy_behavior" sheetId="36" r:id="rId5"/>
     <sheet name="vislab-tecnico_vizzy_playground" sheetId="35" r:id="rId6"/>
